--- a/Datos/Database by set/Set with text box/Xlsx sets/Tarkir Dragonfury (PTKDF).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Tarkir Dragonfury (PTKDF).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,133 +444,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dragon Fodder</t>
+          <t>('Dragon Fodder', ['{1}{R}', 'Sorcery', 'Create two 1/1 red Goblin creature tokens.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{1}{R}</t>
+          <t>("Dragonlord's Servant", ['{1}{R}', 'Creature — Goblin Shaman', 'Dragon spells you cast cost {1} less to cast.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Evolving Wilds', ['Land', '{T}, Sacrifice Evolving Wilds: Search your library for a basic land card, put it onto the battlefield tapped, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Create two 1/1 red Goblin creature tokens.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Dragonlord's Servant</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Creature — Goblin Shaman</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Dragon spells you cast cost {1} less to cast.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Evolving Wilds</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{T}, Sacrifice Evolving Wilds: Search your library for a basic land card, put it onto the battlefield tapped, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Foe-Razer Regent</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{5}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>When Foe-Razer Regent enters the battlefield, you may have it fight target creature you don’t control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Whenever a creature you control fights, put two +1/+1 counters on it at the beginning of the next end step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4/5</t>
+          <t>('Foe-Razer Regent', ['{5}{G}{G}', 'Creature — Dragon', 'Flying', 'When Foe-Razer Regent enters the battlefield, you may have it fight target creature you don’t control.', 'Whenever a creature you control fights, put two +1/+1 counters on it at the beginning of the next end step.', '4/5'])</t>
         </is>
       </c>
     </row>
